--- a/history-error-2025-12-30.xlsx
+++ b/history-error-2025-12-30.xlsx
@@ -1,107 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gad-shaily\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C246CD-8D26-41B8-9C92-F18D2DC3F608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Scan Logs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Wire No.</t>
-  </si>
-  <si>
-    <t>Wire Size</t>
-  </si>
-  <si>
-    <t>WIRE COLOR</t>
-  </si>
-  <si>
-    <t>CUTTING LENGTH ± 5 MM</t>
-  </si>
-  <si>
-    <t>TERMINAL SIDE-A</t>
-  </si>
-  <si>
-    <t>TERMINAL SIDE-B</t>
-  </si>
-  <si>
-    <t>Part Number</t>
-  </si>
-  <si>
-    <t>scan-by</t>
-  </si>
-  <si>
-    <t>Scanned Code</t>
-  </si>
-  <si>
-    <t>Scanner</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>30/12/2025</t>
-  </si>
-  <si>
-    <t>20:11:03</t>
-  </si>
-  <si>
-    <t>SFG00964</t>
-  </si>
-  <si>
-    <t>UL1569AWG22BLACK/GREEN(BARE)</t>
-  </si>
-  <si>
-    <t>Black / Green</t>
-  </si>
-  <si>
-    <t>1305</t>
-  </si>
-  <si>
-    <t>917764-1</t>
-  </si>
-  <si>
-    <t>2350223-1</t>
-  </si>
-  <si>
-    <t>W11789514</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>521596-2</t>
-  </si>
-  <si>
-    <t>NOT_MATCHED</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,21 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -470,130 +396,563 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.796875" customWidth="1"/>
-    <col min="2" max="3" width="10.796875" customWidth="1"/>
-    <col min="4" max="4" width="30.796875" customWidth="1"/>
-    <col min="5" max="5" width="15.796875" customWidth="1"/>
-    <col min="6" max="6" width="23.796875" customWidth="1"/>
-    <col min="7" max="8" width="17.796875" customWidth="1"/>
-    <col min="9" max="9" width="13.796875" customWidth="1"/>
-    <col min="10" max="10" width="9.796875" customWidth="1"/>
-    <col min="11" max="11" width="30.796875" customWidth="1"/>
-    <col min="12" max="12" width="9.796875" customWidth="1"/>
-    <col min="13" max="13" width="13.796875" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Date</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Time</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Wire No.</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Wire Size</v>
+      </c>
+      <c r="E1" t="str">
+        <v>WIRE COLOR</v>
+      </c>
+      <c r="F1" t="str">
+        <v>CUTTING LENGTH ± 5 MM</v>
+      </c>
+      <c r="G1" t="str">
+        <v>TERMINAL SIDE-A</v>
+      </c>
+      <c r="H1" t="str">
+        <v>TERMINAL SIDE-B</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Part Number</v>
+      </c>
+      <c r="J1" t="str">
+        <v>scan-by</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Scanned Code</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Scanner</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Status</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B2" t="str">
+        <v>20:59:51</v>
+      </c>
+      <c r="C2" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D2" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F2" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G2" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H2" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I2" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v>350851-1</v>
+      </c>
+      <c r="L2" t="str">
+        <v/>
+      </c>
+      <c r="M2" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B3" t="str">
+        <v>20:54:25</v>
+      </c>
+      <c r="C3" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D3" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F3" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G3" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H3" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I3" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v>485043-1</v>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B4" t="str">
+        <v>20:46:19</v>
+      </c>
+      <c r="C4" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D4" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F4" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G4" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H4" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I4" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B5" t="str">
+        <v>20:41:49</v>
+      </c>
+      <c r="C5" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D5" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E5" t="str">
+        <v>BLACK-GREEN</v>
+      </c>
+      <c r="F5" t="str">
+        <v>1465</v>
+      </c>
+      <c r="G5" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H5" t="str">
+        <v>1744423-1</v>
+      </c>
+      <c r="I5" t="str">
+        <v>W11769761</v>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v>175019-1</v>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B6" t="str">
+        <v>20:38:03</v>
+      </c>
+      <c r="C6" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D6" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F6" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G6" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H6" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I6" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v>c</v>
+      </c>
+      <c r="L6" t="str">
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B7" t="str">
+        <v>20:37:49</v>
+      </c>
+      <c r="C7" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D7" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F7" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G7" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H7" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I7" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v>63130-2</v>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B8" t="str">
+        <v>20:35:14</v>
+      </c>
+      <c r="C8" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D8" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F8" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G8" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H8" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I8" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v>c</v>
+      </c>
+      <c r="L8" t="str">
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B9" t="str">
+        <v>20:34:56</v>
+      </c>
+      <c r="C9" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D9" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F9" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G9" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H9" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I9" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v>c</v>
+      </c>
+      <c r="L9" t="str">
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B10" t="str">
+        <v>20:34:37</v>
+      </c>
+      <c r="C10" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D10" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F10" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G10" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H10" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I10" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v>61795-1</v>
+      </c>
+      <c r="L10" t="str">
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B11" t="str">
+        <v>20:29:57</v>
+      </c>
+      <c r="C11" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D11" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F11" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G11" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H11" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I11" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v>c</v>
+      </c>
+      <c r="L11" t="str">
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B12" t="str">
+        <v>20:27:24</v>
+      </c>
+      <c r="C12" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D12" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F12" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G12" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H12" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I12" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v>61795-1</v>
+      </c>
+      <c r="L12" t="str">
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B13" t="str">
+        <v>20:11:03</v>
+      </c>
+      <c r="C13" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D13" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F13" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G13" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H13" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I13" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v>521596-2</v>
+      </c>
+      <c r="L13" t="str">
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M2" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/history-error-2025-12-30.xlsx
+++ b/history-error-2025-12-30.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,10 +460,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>30/12/2025</v>
+        <v>31/12/2025</v>
       </c>
       <c r="B2" t="str">
-        <v>20:59:51</v>
+        <v>01:25:07</v>
       </c>
       <c r="C2" t="str">
         <v>SFG00964</v>
@@ -490,7 +490,7 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <v>350851-1</v>
+        <v>917683-1</v>
       </c>
       <c r="L2" t="str">
         <v/>
@@ -501,10 +501,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>30/12/2025</v>
+        <v>31/12/2025</v>
       </c>
       <c r="B3" t="str">
-        <v>20:54:25</v>
+        <v>01:23:26</v>
       </c>
       <c r="C3" t="str">
         <v>SFG00964</v>
@@ -531,7 +531,7 @@
         <v/>
       </c>
       <c r="K3" t="str">
-        <v>485043-1</v>
+        <v>917683-1</v>
       </c>
       <c r="L3" t="str">
         <v/>
@@ -542,10 +542,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>30/12/2025</v>
+        <v>31/12/2025</v>
       </c>
       <c r="B4" t="str">
-        <v>20:46:19</v>
+        <v>01:06:44</v>
       </c>
       <c r="C4" t="str">
         <v>SFG00964</v>
@@ -557,22 +557,22 @@
         <v>Black / Green</v>
       </c>
       <c r="F4" t="str">
-        <v>1305</v>
+        <v>1330</v>
       </c>
       <c r="G4" t="str">
-        <v>917764-1</v>
+        <v>1P0561349000</v>
       </c>
       <c r="H4" t="str">
-        <v>2350223-1</v>
+        <v>1P0039000048</v>
       </c>
       <c r="I4" t="str">
-        <v>W11789514</v>
+        <v>W11539481</v>
       </c>
       <c r="J4" t="str">
         <v/>
       </c>
       <c r="K4" t="str">
-        <v>917764-1</v>
+        <v>1744201-1</v>
       </c>
       <c r="L4" t="str">
         <v/>
@@ -583,10 +583,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>30/12/2025</v>
+        <v>31/12/2025</v>
       </c>
       <c r="B5" t="str">
-        <v>20:41:49</v>
+        <v>00:59:33</v>
       </c>
       <c r="C5" t="str">
         <v>SFG00964</v>
@@ -595,25 +595,25 @@
         <v>UL1569AWG22BLACK/GREEN(BARE)</v>
       </c>
       <c r="E5" t="str">
-        <v>BLACK-GREEN</v>
+        <v>Black / Green</v>
       </c>
       <c r="F5" t="str">
-        <v>1465</v>
+        <v>1320</v>
       </c>
       <c r="G5" t="str">
         <v>917764-1</v>
       </c>
       <c r="H5" t="str">
-        <v>1744423-1</v>
+        <v>2350223-1</v>
       </c>
       <c r="I5" t="str">
-        <v>W11769761</v>
+        <v>W11539482</v>
       </c>
       <c r="J5" t="str">
         <v/>
       </c>
       <c r="K5" t="str">
-        <v>175019-1</v>
+        <v>521596-2</v>
       </c>
       <c r="L5" t="str">
         <v/>
@@ -624,10 +624,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>30/12/2025</v>
+        <v>31/12/2025</v>
       </c>
       <c r="B6" t="str">
-        <v>20:38:03</v>
+        <v>00:51:07</v>
       </c>
       <c r="C6" t="str">
         <v>SFG00964</v>
@@ -654,7 +654,7 @@
         <v/>
       </c>
       <c r="K6" t="str">
-        <v>c</v>
+        <v>1862006-5</v>
       </c>
       <c r="L6" t="str">
         <v/>
@@ -665,10 +665,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>30/12/2025</v>
+        <v>31/12/2025</v>
       </c>
       <c r="B7" t="str">
-        <v>20:37:49</v>
+        <v>00:48:17</v>
       </c>
       <c r="C7" t="str">
         <v>SFG00964</v>
@@ -695,7 +695,7 @@
         <v/>
       </c>
       <c r="K7" t="str">
-        <v>63130-2</v>
+        <v>177916-1</v>
       </c>
       <c r="L7" t="str">
         <v/>
@@ -706,10 +706,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>30/12/2025</v>
+        <v>31/12/2025</v>
       </c>
       <c r="B8" t="str">
-        <v>20:35:14</v>
+        <v>00:46:49</v>
       </c>
       <c r="C8" t="str">
         <v>SFG00964</v>
@@ -733,13 +733,13 @@
         <v>W11789514</v>
       </c>
       <c r="J8" t="str">
-        <v/>
+        <v>wnny</v>
       </c>
       <c r="K8" t="str">
-        <v>c</v>
+        <v>521596-2</v>
       </c>
       <c r="L8" t="str">
-        <v/>
+        <v>wnny</v>
       </c>
       <c r="M8" t="str">
         <v>NOT_MATCHED</v>
@@ -750,7 +750,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B9" t="str">
-        <v>20:34:56</v>
+        <v>20:59:51</v>
       </c>
       <c r="C9" t="str">
         <v>SFG00964</v>
@@ -777,7 +777,7 @@
         <v/>
       </c>
       <c r="K9" t="str">
-        <v>c</v>
+        <v>350851-1</v>
       </c>
       <c r="L9" t="str">
         <v/>
@@ -791,7 +791,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B10" t="str">
-        <v>20:34:37</v>
+        <v>20:54:25</v>
       </c>
       <c r="C10" t="str">
         <v>SFG00964</v>
@@ -818,7 +818,7 @@
         <v/>
       </c>
       <c r="K10" t="str">
-        <v>61795-1</v>
+        <v>485043-1</v>
       </c>
       <c r="L10" t="str">
         <v/>
@@ -832,7 +832,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B11" t="str">
-        <v>20:29:57</v>
+        <v>20:46:19</v>
       </c>
       <c r="C11" t="str">
         <v>SFG00964</v>
@@ -859,7 +859,7 @@
         <v/>
       </c>
       <c r="K11" t="str">
-        <v>c</v>
+        <v>917764-1</v>
       </c>
       <c r="L11" t="str">
         <v/>
@@ -873,7 +873,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B12" t="str">
-        <v>20:27:24</v>
+        <v>20:41:49</v>
       </c>
       <c r="C12" t="str">
         <v>SFG00964</v>
@@ -882,25 +882,25 @@
         <v>UL1569AWG22BLACK/GREEN(BARE)</v>
       </c>
       <c r="E12" t="str">
-        <v>Black / Green</v>
+        <v>BLACK-GREEN</v>
       </c>
       <c r="F12" t="str">
-        <v>1305</v>
+        <v>1465</v>
       </c>
       <c r="G12" t="str">
         <v>917764-1</v>
       </c>
       <c r="H12" t="str">
-        <v>2350223-1</v>
+        <v>1744423-1</v>
       </c>
       <c r="I12" t="str">
-        <v>W11789514</v>
+        <v>W11769761</v>
       </c>
       <c r="J12" t="str">
         <v/>
       </c>
       <c r="K12" t="str">
-        <v>61795-1</v>
+        <v>175019-1</v>
       </c>
       <c r="L12" t="str">
         <v/>
@@ -914,45 +914,332 @@
         <v>30/12/2025</v>
       </c>
       <c r="B13" t="str">
+        <v>20:38:03</v>
+      </c>
+      <c r="C13" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D13" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F13" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G13" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H13" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I13" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v>c</v>
+      </c>
+      <c r="L13" t="str">
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B14" t="str">
+        <v>20:37:49</v>
+      </c>
+      <c r="C14" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D14" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F14" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G14" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H14" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I14" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v>63130-2</v>
+      </c>
+      <c r="L14" t="str">
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B15" t="str">
+        <v>20:35:14</v>
+      </c>
+      <c r="C15" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D15" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F15" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G15" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H15" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I15" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v>c</v>
+      </c>
+      <c r="L15" t="str">
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B16" t="str">
+        <v>20:34:56</v>
+      </c>
+      <c r="C16" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D16" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F16" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G16" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H16" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I16" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v>c</v>
+      </c>
+      <c r="L16" t="str">
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B17" t="str">
+        <v>20:34:37</v>
+      </c>
+      <c r="C17" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D17" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F17" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G17" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H17" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I17" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v>61795-1</v>
+      </c>
+      <c r="L17" t="str">
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B18" t="str">
+        <v>20:29:57</v>
+      </c>
+      <c r="C18" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D18" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F18" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G18" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H18" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I18" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v>c</v>
+      </c>
+      <c r="L18" t="str">
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B19" t="str">
+        <v>20:27:24</v>
+      </c>
+      <c r="C19" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D19" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F19" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G19" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H19" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I19" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v>61795-1</v>
+      </c>
+      <c r="L19" t="str">
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B20" t="str">
         <v>20:11:03</v>
       </c>
-      <c r="C13" t="str">
-        <v>SFG00964</v>
-      </c>
-      <c r="D13" t="str">
-        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Black / Green</v>
-      </c>
-      <c r="F13" t="str">
-        <v>1305</v>
-      </c>
-      <c r="G13" t="str">
-        <v>917764-1</v>
-      </c>
-      <c r="H13" t="str">
-        <v>2350223-1</v>
-      </c>
-      <c r="I13" t="str">
-        <v>W11789514</v>
-      </c>
-      <c r="J13" t="str">
-        <v/>
-      </c>
-      <c r="K13" t="str">
+      <c r="C20" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D20" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F20" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G20" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H20" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I20" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
         <v>521596-2</v>
       </c>
-      <c r="L13" t="str">
-        <v/>
-      </c>
-      <c r="M13" t="str">
+      <c r="L20" t="str">
+        <v/>
+      </c>
+      <c r="M20" t="str">
         <v>NOT_MATCHED</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M20"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/history-error-2025-12-30.xlsx
+++ b/history-error-2025-12-30.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,7 +463,7 @@
         <v>31/12/2025</v>
       </c>
       <c r="B2" t="str">
-        <v>01:25:07</v>
+        <v>03:10:42</v>
       </c>
       <c r="C2" t="str">
         <v>SFG00964</v>
@@ -490,7 +490,7 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <v>917683-1</v>
+        <v>_x001b__x000d__x0000_B1</v>
       </c>
       <c r="L2" t="str">
         <v/>
@@ -504,7 +504,7 @@
         <v>31/12/2025</v>
       </c>
       <c r="B3" t="str">
-        <v>01:23:26</v>
+        <v>02:47:07</v>
       </c>
       <c r="C3" t="str">
         <v>SFG00964</v>
@@ -545,7 +545,7 @@
         <v>31/12/2025</v>
       </c>
       <c r="B4" t="str">
-        <v>01:06:44</v>
+        <v>02:46:38</v>
       </c>
       <c r="C4" t="str">
         <v>SFG00964</v>
@@ -557,22 +557,22 @@
         <v>Black / Green</v>
       </c>
       <c r="F4" t="str">
-        <v>1330</v>
+        <v>1305</v>
       </c>
       <c r="G4" t="str">
-        <v>1P0561349000</v>
+        <v>917764-1</v>
       </c>
       <c r="H4" t="str">
-        <v>1P0039000048</v>
+        <v>2350223-1</v>
       </c>
       <c r="I4" t="str">
-        <v>W11539481</v>
+        <v>W11789514</v>
       </c>
       <c r="J4" t="str">
         <v/>
       </c>
       <c r="K4" t="str">
-        <v>1744201-1</v>
+        <v>_x001b__x000d__x0000_</v>
       </c>
       <c r="L4" t="str">
         <v/>
@@ -586,7 +586,7 @@
         <v>31/12/2025</v>
       </c>
       <c r="B5" t="str">
-        <v>00:59:33</v>
+        <v>02:44:04</v>
       </c>
       <c r="C5" t="str">
         <v>SFG00964</v>
@@ -598,7 +598,7 @@
         <v>Black / Green</v>
       </c>
       <c r="F5" t="str">
-        <v>1320</v>
+        <v>1305</v>
       </c>
       <c r="G5" t="str">
         <v>917764-1</v>
@@ -607,13 +607,13 @@
         <v>2350223-1</v>
       </c>
       <c r="I5" t="str">
-        <v>W11539482</v>
+        <v>W11789514</v>
       </c>
       <c r="J5" t="str">
         <v/>
       </c>
       <c r="K5" t="str">
-        <v>521596-2</v>
+        <v>1744144-1</v>
       </c>
       <c r="L5" t="str">
         <v/>
@@ -627,7 +627,7 @@
         <v>31/12/2025</v>
       </c>
       <c r="B6" t="str">
-        <v>00:51:07</v>
+        <v>02:44:03</v>
       </c>
       <c r="C6" t="str">
         <v>SFG00964</v>
@@ -654,7 +654,7 @@
         <v/>
       </c>
       <c r="K6" t="str">
-        <v>1862006-5</v>
+        <v>1744201-1</v>
       </c>
       <c r="L6" t="str">
         <v/>
@@ -668,7 +668,7 @@
         <v>31/12/2025</v>
       </c>
       <c r="B7" t="str">
-        <v>00:48:17</v>
+        <v>02:43:33</v>
       </c>
       <c r="C7" t="str">
         <v>SFG00964</v>
@@ -695,7 +695,7 @@
         <v/>
       </c>
       <c r="K7" t="str">
-        <v>177916-1</v>
+        <v>917764-1</v>
       </c>
       <c r="L7" t="str">
         <v/>
@@ -709,37 +709,37 @@
         <v>31/12/2025</v>
       </c>
       <c r="B8" t="str">
-        <v>00:46:49</v>
+        <v>02:21:30</v>
       </c>
       <c r="C8" t="str">
-        <v>SFG00964</v>
+        <v>SFG00966</v>
       </c>
       <c r="D8" t="str">
-        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+        <v>UL1015AWG18BLACK/WHITE(BARE)</v>
       </c>
       <c r="E8" t="str">
-        <v>Black / Green</v>
+        <v>Black / White</v>
       </c>
       <c r="F8" t="str">
-        <v>1305</v>
+        <v>980</v>
       </c>
       <c r="G8" t="str">
-        <v>917764-1</v>
+        <v>1862006-5</v>
       </c>
       <c r="H8" t="str">
-        <v>2350223-1</v>
+        <v>485043-1</v>
       </c>
       <c r="I8" t="str">
-        <v>W11789514</v>
+        <v>W11539482</v>
       </c>
       <c r="J8" t="str">
-        <v>wnny</v>
+        <v/>
       </c>
       <c r="K8" t="str">
-        <v>521596-2</v>
+        <v>c</v>
       </c>
       <c r="L8" t="str">
-        <v>wnny</v>
+        <v/>
       </c>
       <c r="M8" t="str">
         <v>NOT_MATCHED</v>
@@ -747,10 +747,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>30/12/2025</v>
+        <v>31/12/2025</v>
       </c>
       <c r="B9" t="str">
-        <v>20:59:51</v>
+        <v>01:25:07</v>
       </c>
       <c r="C9" t="str">
         <v>SFG00964</v>
@@ -777,7 +777,7 @@
         <v/>
       </c>
       <c r="K9" t="str">
-        <v>350851-1</v>
+        <v>917683-1</v>
       </c>
       <c r="L9" t="str">
         <v/>
@@ -788,10 +788,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>30/12/2025</v>
+        <v>31/12/2025</v>
       </c>
       <c r="B10" t="str">
-        <v>20:54:25</v>
+        <v>01:23:26</v>
       </c>
       <c r="C10" t="str">
         <v>SFG00964</v>
@@ -818,7 +818,7 @@
         <v/>
       </c>
       <c r="K10" t="str">
-        <v>485043-1</v>
+        <v>917683-1</v>
       </c>
       <c r="L10" t="str">
         <v/>
@@ -829,10 +829,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>30/12/2025</v>
+        <v>31/12/2025</v>
       </c>
       <c r="B11" t="str">
-        <v>20:46:19</v>
+        <v>01:06:44</v>
       </c>
       <c r="C11" t="str">
         <v>SFG00964</v>
@@ -844,22 +844,22 @@
         <v>Black / Green</v>
       </c>
       <c r="F11" t="str">
-        <v>1305</v>
+        <v>1330</v>
       </c>
       <c r="G11" t="str">
-        <v>917764-1</v>
+        <v>1P0561349000</v>
       </c>
       <c r="H11" t="str">
-        <v>2350223-1</v>
+        <v>1P0039000048</v>
       </c>
       <c r="I11" t="str">
-        <v>W11789514</v>
+        <v>W11539481</v>
       </c>
       <c r="J11" t="str">
         <v/>
       </c>
       <c r="K11" t="str">
-        <v>917764-1</v>
+        <v>1744201-1</v>
       </c>
       <c r="L11" t="str">
         <v/>
@@ -870,10 +870,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>30/12/2025</v>
+        <v>31/12/2025</v>
       </c>
       <c r="B12" t="str">
-        <v>20:41:49</v>
+        <v>00:59:33</v>
       </c>
       <c r="C12" t="str">
         <v>SFG00964</v>
@@ -882,25 +882,25 @@
         <v>UL1569AWG22BLACK/GREEN(BARE)</v>
       </c>
       <c r="E12" t="str">
-        <v>BLACK-GREEN</v>
+        <v>Black / Green</v>
       </c>
       <c r="F12" t="str">
-        <v>1465</v>
+        <v>1320</v>
       </c>
       <c r="G12" t="str">
         <v>917764-1</v>
       </c>
       <c r="H12" t="str">
-        <v>1744423-1</v>
+        <v>2350223-1</v>
       </c>
       <c r="I12" t="str">
-        <v>W11769761</v>
+        <v>W11539482</v>
       </c>
       <c r="J12" t="str">
         <v/>
       </c>
       <c r="K12" t="str">
-        <v>175019-1</v>
+        <v>521596-2</v>
       </c>
       <c r="L12" t="str">
         <v/>
@@ -911,10 +911,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>30/12/2025</v>
+        <v>31/12/2025</v>
       </c>
       <c r="B13" t="str">
-        <v>20:38:03</v>
+        <v>00:51:07</v>
       </c>
       <c r="C13" t="str">
         <v>SFG00964</v>
@@ -941,7 +941,7 @@
         <v/>
       </c>
       <c r="K13" t="str">
-        <v>c</v>
+        <v>1862006-5</v>
       </c>
       <c r="L13" t="str">
         <v/>
@@ -952,10 +952,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>30/12/2025</v>
+        <v>31/12/2025</v>
       </c>
       <c r="B14" t="str">
-        <v>20:37:49</v>
+        <v>00:48:17</v>
       </c>
       <c r="C14" t="str">
         <v>SFG00964</v>
@@ -982,7 +982,7 @@
         <v/>
       </c>
       <c r="K14" t="str">
-        <v>63130-2</v>
+        <v>177916-1</v>
       </c>
       <c r="L14" t="str">
         <v/>
@@ -993,10 +993,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>30/12/2025</v>
+        <v>31/12/2025</v>
       </c>
       <c r="B15" t="str">
-        <v>20:35:14</v>
+        <v>00:46:49</v>
       </c>
       <c r="C15" t="str">
         <v>SFG00964</v>
@@ -1020,13 +1020,13 @@
         <v>W11789514</v>
       </c>
       <c r="J15" t="str">
-        <v/>
+        <v>wnny</v>
       </c>
       <c r="K15" t="str">
-        <v>c</v>
+        <v>521596-2</v>
       </c>
       <c r="L15" t="str">
-        <v/>
+        <v>wnny</v>
       </c>
       <c r="M15" t="str">
         <v>NOT_MATCHED</v>
@@ -1037,7 +1037,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B16" t="str">
-        <v>20:34:56</v>
+        <v>20:59:51</v>
       </c>
       <c r="C16" t="str">
         <v>SFG00964</v>
@@ -1064,7 +1064,7 @@
         <v/>
       </c>
       <c r="K16" t="str">
-        <v>c</v>
+        <v>350851-1</v>
       </c>
       <c r="L16" t="str">
         <v/>
@@ -1078,7 +1078,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B17" t="str">
-        <v>20:34:37</v>
+        <v>20:54:25</v>
       </c>
       <c r="C17" t="str">
         <v>SFG00964</v>
@@ -1105,7 +1105,7 @@
         <v/>
       </c>
       <c r="K17" t="str">
-        <v>61795-1</v>
+        <v>485043-1</v>
       </c>
       <c r="L17" t="str">
         <v/>
@@ -1119,7 +1119,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B18" t="str">
-        <v>20:29:57</v>
+        <v>20:46:19</v>
       </c>
       <c r="C18" t="str">
         <v>SFG00964</v>
@@ -1146,7 +1146,7 @@
         <v/>
       </c>
       <c r="K18" t="str">
-        <v>c</v>
+        <v>917764-1</v>
       </c>
       <c r="L18" t="str">
         <v/>
@@ -1160,7 +1160,7 @@
         <v>30/12/2025</v>
       </c>
       <c r="B19" t="str">
-        <v>20:27:24</v>
+        <v>20:41:49</v>
       </c>
       <c r="C19" t="str">
         <v>SFG00964</v>
@@ -1169,25 +1169,25 @@
         <v>UL1569AWG22BLACK/GREEN(BARE)</v>
       </c>
       <c r="E19" t="str">
-        <v>Black / Green</v>
+        <v>BLACK-GREEN</v>
       </c>
       <c r="F19" t="str">
-        <v>1305</v>
+        <v>1465</v>
       </c>
       <c r="G19" t="str">
         <v>917764-1</v>
       </c>
       <c r="H19" t="str">
-        <v>2350223-1</v>
+        <v>1744423-1</v>
       </c>
       <c r="I19" t="str">
-        <v>W11789514</v>
+        <v>W11769761</v>
       </c>
       <c r="J19" t="str">
         <v/>
       </c>
       <c r="K19" t="str">
-        <v>61795-1</v>
+        <v>175019-1</v>
       </c>
       <c r="L19" t="str">
         <v/>
@@ -1201,45 +1201,332 @@
         <v>30/12/2025</v>
       </c>
       <c r="B20" t="str">
+        <v>20:38:03</v>
+      </c>
+      <c r="C20" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D20" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F20" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G20" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H20" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I20" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v>c</v>
+      </c>
+      <c r="L20" t="str">
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B21" t="str">
+        <v>20:37:49</v>
+      </c>
+      <c r="C21" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D21" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F21" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G21" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H21" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I21" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v>63130-2</v>
+      </c>
+      <c r="L21" t="str">
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B22" t="str">
+        <v>20:35:14</v>
+      </c>
+      <c r="C22" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D22" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F22" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G22" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H22" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I22" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v>c</v>
+      </c>
+      <c r="L22" t="str">
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B23" t="str">
+        <v>20:34:56</v>
+      </c>
+      <c r="C23" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D23" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F23" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G23" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H23" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I23" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v>c</v>
+      </c>
+      <c r="L23" t="str">
+        <v/>
+      </c>
+      <c r="M23" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B24" t="str">
+        <v>20:34:37</v>
+      </c>
+      <c r="C24" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D24" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F24" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G24" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H24" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I24" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v>61795-1</v>
+      </c>
+      <c r="L24" t="str">
+        <v/>
+      </c>
+      <c r="M24" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B25" t="str">
+        <v>20:29:57</v>
+      </c>
+      <c r="C25" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D25" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F25" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G25" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H25" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I25" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v>c</v>
+      </c>
+      <c r="L25" t="str">
+        <v/>
+      </c>
+      <c r="M25" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B26" t="str">
+        <v>20:27:24</v>
+      </c>
+      <c r="C26" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D26" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F26" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G26" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H26" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I26" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v>61795-1</v>
+      </c>
+      <c r="L26" t="str">
+        <v/>
+      </c>
+      <c r="M26" t="str">
+        <v>NOT_MATCHED</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>30/12/2025</v>
+      </c>
+      <c r="B27" t="str">
         <v>20:11:03</v>
       </c>
-      <c r="C20" t="str">
-        <v>SFG00964</v>
-      </c>
-      <c r="D20" t="str">
-        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
-      </c>
-      <c r="E20" t="str">
-        <v>Black / Green</v>
-      </c>
-      <c r="F20" t="str">
-        <v>1305</v>
-      </c>
-      <c r="G20" t="str">
-        <v>917764-1</v>
-      </c>
-      <c r="H20" t="str">
-        <v>2350223-1</v>
-      </c>
-      <c r="I20" t="str">
-        <v>W11789514</v>
-      </c>
-      <c r="J20" t="str">
-        <v/>
-      </c>
-      <c r="K20" t="str">
+      <c r="C27" t="str">
+        <v>SFG00964</v>
+      </c>
+      <c r="D27" t="str">
+        <v>UL1569AWG22BLACK/GREEN(BARE)</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Black / Green</v>
+      </c>
+      <c r="F27" t="str">
+        <v>1305</v>
+      </c>
+      <c r="G27" t="str">
+        <v>917764-1</v>
+      </c>
+      <c r="H27" t="str">
+        <v>2350223-1</v>
+      </c>
+      <c r="I27" t="str">
+        <v>W11789514</v>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
         <v>521596-2</v>
       </c>
-      <c r="L20" t="str">
-        <v/>
-      </c>
-      <c r="M20" t="str">
+      <c r="L27" t="str">
+        <v/>
+      </c>
+      <c r="M27" t="str">
         <v>NOT_MATCHED</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M27"/>
   </ignoredErrors>
 </worksheet>
 </file>